--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187422.950464927</v>
+        <v>1166616.288808417</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2990033.635411731</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10583094.62700956</v>
+        <v>11423767.42356056</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>401.3550844723776</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>156.5638745616934</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>118.0992256993567</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>170.8454495418752</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>209.6994269167752</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5615160058696</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="R10" t="n">
-        <v>62.56386682245563</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>27.61671453261968</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>143.2925104849746</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.59458547084342</v>
+        <v>108.3636623682362</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>66.90445977359171</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.30026924195955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>161.4046520073173</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151917</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.0029430149296</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.7660731567842</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>169.4110513929677</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>24.32276211751099</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3678,10 +3678,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>87.00149831743119</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.34190763938432</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>116.625643494282</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.7094310875191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>17.2647471124512</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>54.76523371349977</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>786.5468780190865</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,16 +4436,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>698.7120650600564</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
-        <v>551.822117562146</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.9067899221776</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="C5" t="n">
-        <v>471.9067899221776</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="D5" t="n">
-        <v>471.9067899221776</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="E5" t="n">
-        <v>471.9067899221776</v>
+        <v>751.6104138473588</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>340.6245090577513</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>326.7011049963422</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2305.943262836876</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1974.880375493305</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.111720223191</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.645961962111</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>858.5066299862995</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1494.518401093284</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1125.555884152873</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>767.2901855461221</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1881.118241157406</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>664.9331591332467</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>517.0200655508536</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y10" t="n">
-        <v>664.9331591332467</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,16 +5059,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="14">
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635878</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.0685056491545</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>410.1323227212476</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229244</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>760.7169704793943</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5709,16 +5709,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y19" t="n">
-        <v>726.8250614170374</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.9054447954967</v>
+        <v>164.7973538578533</v>
       </c>
       <c r="C22" t="n">
-        <v>130.9054447954967</v>
+        <v>164.7973538578533</v>
       </c>
       <c r="D22" t="n">
-        <v>130.9054447954967</v>
+        <v>164.7973538578533</v>
       </c>
       <c r="E22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>130.9054447954967</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954967</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>130.9054447954967</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.9054447954967</v>
+        <v>164.7973538578533</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1335.881268530309</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.130855347408</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X25" t="n">
-        <v>1047.141304449391</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>1047.141304449391</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6417,19 +6417,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,10 +6466,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.4856756861153</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C31" t="n">
-        <v>699.5494927582084</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>549.4328533458727</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>401.5197597634796</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>233.3444380833002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>1270.926719659885</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.134140516355</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916676</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.246603057541</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851654</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814693</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916676</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4741.167820987513</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4452.039182201071</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4197.354693995184</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W37" t="n">
-        <v>3907.937523958223</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X37" t="n">
-        <v>3679.947973060206</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
@@ -7180,46 +7180,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632138</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="U40" t="n">
-        <v>1387.841167119728</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="V40" t="n">
-        <v>1387.841167119728</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="W40" t="n">
-        <v>1387.841167119728</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="X40" t="n">
-        <v>1387.841167119728</v>
+        <v>1100.040855704541</v>
       </c>
       <c r="Y40" t="n">
-        <v>1322.84934122136</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,22 +7423,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.4452354807079</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C43" t="n">
-        <v>415.509052552801</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E43" t="n">
         <v>265.3924131404652</v>
@@ -7560,25 +7560,25 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>957.4071649657059</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609669</v>
+        <v>702.722676759819</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609669</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="X43" t="n">
-        <v>986.0022165609669</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.0937003109476</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822461</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395484</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>841.790738378246</v>
+        <v>471.5883316929525</v>
       </c>
       <c r="C46" t="n">
-        <v>841.790738378246</v>
+        <v>302.6521487650456</v>
       </c>
       <c r="D46" t="n">
-        <v>691.6740989659103</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>152.5355093527099</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352016</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>1244.231782352016</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X46" t="n">
-        <v>1244.231782352016</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y46" t="n">
-        <v>1023.439203208486</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9008,22 +9008,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231157</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776743</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>148.2747143566553</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.42908554841739</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,22 +22704,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.74592769735756</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>80.37871796641409</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.10132515770223</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.6301065660082</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>5.322962533237785</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>112.0695782210727</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.2373947110939</v>
+        <v>71.46831781370108</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23949,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>79.52950287297746</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>77.0677756624132</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.5317109399778</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>36.51615797628597</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338568</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>58.13470030889843</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>120.0467099505167</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>14.14775521075197</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>227.814881206317</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>134.5460627409581</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.2427457127105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>169.6117089042953</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.8752222645757399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>129.169215534118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>90.65581430943148</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>738255.8117143273</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738255.8117143273</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738255.8117143273</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114797</v>
@@ -26331,16 +26331,16 @@
         <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
@@ -26349,13 +26349,13 @@
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114797</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>3.46818751495448e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773396</v>
@@ -26447,19 +26447,19 @@
         <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="N4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="N4" t="n">
-        <v>36432.48351773394</v>
       </c>
       <c r="O4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399561.7424361891</v>
+        <v>-404602.6707097259</v>
       </c>
       <c r="C6" t="n">
-        <v>190406.1367783553</v>
+        <v>185365.2085048185</v>
       </c>
       <c r="D6" t="n">
-        <v>190406.1367783555</v>
+        <v>185365.2085048185</v>
       </c>
       <c r="E6" t="n">
-        <v>-223447.8802318669</v>
+        <v>-224422.4714915887</v>
       </c>
       <c r="F6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="G6" t="n">
-        <v>301712.1562450291</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="H6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="I6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="J6" t="n">
-        <v>125288.9370524361</v>
+        <v>124314.3457927146</v>
       </c>
       <c r="K6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853074</v>
       </c>
       <c r="L6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="M6" t="n">
-        <v>166911.1410111921</v>
+        <v>165936.5497514704</v>
       </c>
       <c r="N6" t="n">
-        <v>301712.1562450288</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="O6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853074</v>
       </c>
       <c r="P6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853074</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26755,13 +26755,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26825,7 +26825,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>205.8235470650005</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>172.2309431554866</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110549</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,10 +35971,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35983,7 +35983,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336987</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>355.36812928818</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1166616.288808417</v>
+        <v>1183685.161273599</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>2990033.635411727</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11423767.42356056</v>
+        <v>10583094.62700956</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>295.9408816142891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>66.23525597315376</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883167</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>155.4526127311946</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>118.0992256993567</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>2.299952822100854</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>84.84244993117508</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>209.6994269167752</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>327.5253445255203</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>27.61671453261968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>14.17096283299235</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.3636623682362</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>66.90445977359171</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>45.21952718910622</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>161.4046520073173</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>194.0029430149296</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>207.0920728594998</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20011114811113</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>195.8155841663235</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.53783461872586</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>169.4110513929677</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>24.32276211751099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>87.00149831743119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>116.625643494282</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F46" t="n">
-        <v>54.76523371349977</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1335.585246272811</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1335.585246272811</v>
       </c>
       <c r="D2" t="n">
-        <v>1662.48357412947</v>
+        <v>1335.585246272811</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>949.7969936745667</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>538.8110888849592</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>120.8472807831461</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>120.8472807831461</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656315</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1722.185086336933</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170843</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,16 +4406,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M3" t="n">
         <v>1237.953133915166</v>
@@ -4430,31 +4430,31 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430049</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073965</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196744</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935841</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I4" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>751.6104138473588</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="C5" t="n">
-        <v>751.6104138473588</v>
+        <v>1545.478645759958</v>
       </c>
       <c r="D5" t="n">
-        <v>751.6104138473588</v>
+        <v>1187.212947153208</v>
       </c>
       <c r="E5" t="n">
-        <v>751.6104138473588</v>
+        <v>801.4246945549635</v>
       </c>
       <c r="F5" t="n">
-        <v>340.6245090577513</v>
+        <v>801.4246945549635</v>
       </c>
       <c r="G5" t="n">
-        <v>326.7011049963422</v>
+        <v>383.4608864531504</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>56.26616648915319</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y5" t="n">
-        <v>1138.210253911481</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,19 +4649,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>139.6424261952888</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>139.6424261952888</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4728,49 +4728,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931991</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>286.5323736931991</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1494.518401093284</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1125.555884152873</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>767.2901855461221</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157406</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.118241157406</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4880,46 +4880,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>713.5189870075369</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>713.5189870075369</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>713.5189870075369</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>713.5189870075369</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X10" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5138,7 +5138,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>720.4504516500522</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500522</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X13" t="n">
-        <v>720.4504516500522</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.4504516500522</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5597,25 +5597,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.489963795367</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.7065213774116</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,61 +5743,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N21" t="n">
         <v>1843.901542059518</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.7973538578533</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C22" t="n">
-        <v>164.7973538578533</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="D22" t="n">
-        <v>164.7973538578533</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W22" t="n">
-        <v>385.5899330013834</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X22" t="n">
-        <v>385.5899330013834</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y22" t="n">
-        <v>164.7973538578533</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6016,22 +6016,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6071,10 +6071,10 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>289.7833290482025</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>142.8933815502922</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028587</v>
@@ -6156,13 +6156,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1335.881268530309</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1112.095853319815</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>822.9672145333731</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V25" t="n">
-        <v>568.2827263274862</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W25" t="n">
-        <v>278.8655562905255</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>437.6964226305956</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6247,7 +6247,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>879.2482765610114</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>879.2482765610114</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>879.2482765610114</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6475,22 +6475,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>441.900558318119</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>394.223678370532</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
         <v>244.1070389581962</v>
@@ -6609,16 +6609,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6666,7 +6666,7 @@
         <v>441.900558318119</v>
       </c>
       <c r="Y31" t="n">
-        <v>441.900558318119</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.1954542207687</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C34" t="n">
-        <v>560.1954542207687</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="F34" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W34" t="n">
-        <v>560.1954542207687</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X34" t="n">
-        <v>560.1954542207687</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y34" t="n">
-        <v>560.1954542207687</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>761.5137598931742</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>472.0965898562135</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y37" t="n">
-        <v>244.1070389581962</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1100.040855704541</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.040855704541</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.040855704541</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>1100.040855704541</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>1100.040855704541</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>879.2482765610114</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,16 +7405,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>413.3055067228584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3055067228584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>413.3055067228584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>957.4071649657059</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>702.722676759819</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>413.3055067228584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>413.3055067228584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>413.3055067228584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,10 +7666,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011339</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665167</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1966.019627967826</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.5883316929525</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>302.6521487650456</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>152.5355093527099</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>152.5355093527099</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>692.3809108364826</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>471.5883316929525</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270188</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951789</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599033</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.026948541559</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9008,25 +9008,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M18" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M21" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,16 +9965,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>148.2747143566553</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.69606027170744</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22609,10 +22609,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.58249272688971</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>149.6313634227603</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>71.32843891062004</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>42.20575615294877</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.6301065660082</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>237.9666804908356</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>112.0695782210727</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>71.46831781370108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>79.52950287297746</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>50.9665916631602</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>121.2740412742714</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>36.51615797628597</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>58.13470030889843</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>79.43092547709125</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>120.0467099505167</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>22.76906918577131</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.8832134042054</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>117.1119469436233</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.814881206317</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>134.5460627409581</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>169.6117089042953</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F46" t="n">
-        <v>90.65581430943148</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143275</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143274</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143273</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>974114.4331976597</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114797</v>
@@ -26328,7 +26328,7 @@
         <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114798</v>
@@ -26340,16 +26340,16 @@
         <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="N2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="N2" t="n">
-        <v>430131.9657114797</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114797</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.65617556859</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
@@ -26438,28 +26438,28 @@
         <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
+        <v>36432.48351773397</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="K4" t="n">
         <v>36432.48351773396</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36432.48351773396</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="O4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="O4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404602.6707097259</v>
+        <v>-400168.5838107712</v>
       </c>
       <c r="C6" t="n">
-        <v>185365.2085048185</v>
+        <v>189799.2954037734</v>
       </c>
       <c r="D6" t="n">
-        <v>185365.2085048185</v>
+        <v>189799.2954037735</v>
       </c>
       <c r="E6" t="n">
-        <v>-224422.4714915887</v>
+        <v>-223545.3393578391</v>
       </c>
       <c r="F6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190571</v>
       </c>
       <c r="G6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.6971190571</v>
       </c>
       <c r="H6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.697119057</v>
       </c>
       <c r="I6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.697119057</v>
       </c>
       <c r="J6" t="n">
-        <v>124314.3457927146</v>
+        <v>125191.477926464</v>
       </c>
       <c r="K6" t="n">
-        <v>300737.5649853074</v>
+        <v>301614.697119057</v>
       </c>
       <c r="L6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190571</v>
       </c>
       <c r="M6" t="n">
-        <v>165936.5497514704</v>
+        <v>166813.6818852197</v>
       </c>
       <c r="N6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.6971190571</v>
       </c>
       <c r="O6" t="n">
-        <v>300737.5649853074</v>
+        <v>301614.697119057</v>
       </c>
       <c r="P6" t="n">
-        <v>300737.5649853074</v>
+        <v>301614.697119057</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26755,16 +26755,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>85.98948845797264</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.88405377167442</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>205.8235470650005</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380968</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>172.2309431554866</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.65885272800598</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M4" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32794,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32803,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32882,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898677</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770696</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M18" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35986,7 +35986,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M21" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
         <v>59.8253897034995</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36685,16 +36685,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>418.5440206727429</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>355.36812928818</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
